--- a/va_facility_data_2025-02-20/Lake City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lake%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lake City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lake%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rf07ac1938f1e4ae99aaa40fb094d5865"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R033a0f43215240779a533f7b3a5d28b7"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R4ec3faf83c2e42259e07c0ad895e1f77"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R76414c1ed59445ddac5967aef191b112"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R45484ac321c845098a9d7a3c70a5b629"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R956704527b1d4250a6dc77b20eac83f6"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R31682644bb8d48d4b6e63d816f9ab1b4"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R7de32354a98749b1b71b136fee205def"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R3aa4724a67c345f8ae2259ada505832f"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R6e31a87255be4534838e3c5e9aceb438"/>
   </x:sheets>
 </x:workbook>
 </file>
